--- a/tests/sample_data.xlsx
+++ b/tests/sample_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
   <si>
     <t>Province</t>
   </si>
@@ -1140,7 +1140,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD18"/>
+      <selection activeCell="F2" sqref="F2:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1188,9 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="F2"/>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1206,7 +1208,9 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3"/>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1224,7 +1228,9 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1242,7 +1248,9 @@
       <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="F5"/>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1260,7 +1268,9 @@
       <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1278,7 +1288,9 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="F7"/>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1296,7 +1308,9 @@
       <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8"/>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1314,7 +1328,9 @@
       <c r="E9" t="s">
         <v>44</v>
       </c>
-      <c r="F9"/>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1332,7 +1348,9 @@
       <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="F10"/>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1350,7 +1368,9 @@
       <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="F11"/>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1368,7 +1388,9 @@
       <c r="E12" t="s">
         <v>23</v>
       </c>
-      <c r="F12"/>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1386,7 +1408,9 @@
       <c r="E13" t="s">
         <v>18</v>
       </c>
-      <c r="F13"/>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1404,7 +1428,9 @@
       <c r="E14" t="s">
         <v>58</v>
       </c>
-      <c r="F14"/>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1422,7 +1448,9 @@
       <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="F15"/>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1440,7 +1468,9 @@
       <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="F16"/>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1458,7 +1488,9 @@
       <c r="E17" t="s">
         <v>18</v>
       </c>
-      <c r="F17"/>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1476,7 +1508,9 @@
       <c r="E18" t="s">
         <v>18</v>
       </c>
-      <c r="F18"/>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/sample_data.xlsx
+++ b/tests/sample_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>Province</t>
   </si>
@@ -36,73 +36,61 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Bulawayo Metropolitan Province</t>
-  </si>
-  <si>
-    <t>Bulawayo Central</t>
-  </si>
-  <si>
-    <t>Kapoikilu Surrender</t>
+    <t/>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>Local_Authority</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Full_Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Contested</t>
+  </si>
+  <si>
+    <t>Matabeleland South Province</t>
+  </si>
+  <si>
+    <t>Beitbridge Municipal Council</t>
+  </si>
+  <si>
+    <t>Mbedzi Bhekimpilo Manyange</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
+    <t>UMDP</t>
+  </si>
+  <si>
+    <t>Pirato Peter Mafuta</t>
+  </si>
+  <si>
     <t>CCC</t>
   </si>
   <si>
-    <t>Contested</t>
-  </si>
-  <si>
-    <t>Charuka Tendayi</t>
+    <t>Sibanda Jeminah</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>INDEPENDENT</t>
+  </si>
+  <si>
+    <t>Sibanda Phefumula</t>
   </si>
   <si>
     <t>ZANU PF</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Ref</t>
-  </si>
-  <si>
-    <t>Local_Authority</t>
-  </si>
-  <si>
-    <t>Ward</t>
-  </si>
-  <si>
-    <t>Full_Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Matabeleland South Province</t>
-  </si>
-  <si>
-    <t>Beitbridge Municipal Council</t>
-  </si>
-  <si>
-    <t>Mbedzi Bhekimpilo Manyange</t>
-  </si>
-  <si>
-    <t>UMDP</t>
-  </si>
-  <si>
-    <t>Pirato Peter Mafuta</t>
-  </si>
-  <si>
-    <t>Sibanda Jeminah</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>INDEPENDENT</t>
-  </si>
-  <si>
-    <t>Sibanda Phefumula</t>
   </si>
   <si>
     <t>Zozo Simbarashe</t>
@@ -214,10 +202,10 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -577,22 +565,22 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +629,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>5</v>
@@ -650,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>4</v>
@@ -688,396 +676,396 @@
         <v>2577</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E2" s="11">
         <v>1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="8">
         <v>2578</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="8">
         <v>2579</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="8">
         <v>2580</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="8">
         <v>2581</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="8">
         <v>2583</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E7" s="11">
         <v>2</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="8">
         <v>2584</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E8" s="11">
         <v>2</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="8">
         <v>2586</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E9" s="11">
         <v>3</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="8">
         <v>2587</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E10" s="11">
         <v>3</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1128,19 +1116,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -1148,320 +1136,140 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/sample_data.xlsx
+++ b/tests/sample_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>title</t>
   </si>
@@ -27,15 +27,6 @@
     <t>title_short</t>
   </si>
   <si>
-    <t>navbar_logo</t>
-  </si>
-  <si>
-    <t>primary_colour</t>
-  </si>
-  <si>
-    <t>secondary_colour</t>
-  </si>
-  <si>
     <t>favicon_link</t>
   </si>
   <si>
@@ -49,9 +40,6 @@
   </si>
   <si>
     <t>google_analytics_key</t>
-  </si>
-  <si>
-    <t>G-tag script</t>
   </si>
   <si>
     <t>South African Candidates</t>
@@ -80,12 +68,57 @@
 "county_govenor": {"file": "CountyGovernor_Final.csv", "locator": ["county_name", "county_code"]}
 }</t>
   </si>
+  <si>
+    <t>gTag_script</t>
+  </si>
+  <si>
+    <t>organization_name</t>
+  </si>
+  <si>
+    <t>organization_link</t>
+  </si>
+  <si>
+    <t>logo_colour</t>
+  </si>
+  <si>
+    <t>footer_colour</t>
+  </si>
+  <si>
+    <t>body_foreground_colour</t>
+  </si>
+  <si>
+    <t>body_background_colour</t>
+  </si>
+  <si>
+    <t>find_candidates_button</t>
+  </si>
+  <si>
+    <t>candidate_names_colour</t>
+  </si>
+  <si>
+    <t>#FFC4AB</t>
+  </si>
+  <si>
+    <t>#1D3437</t>
+  </si>
+  <si>
+    <t>#30474A</t>
+  </si>
+  <si>
+    <t>#E5E5E5</t>
+  </si>
+  <si>
+    <t>#E07D54</t>
+  </si>
+  <si>
+    <t>#F2AA71</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +137,19 @@
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -149,6 +195,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,86 +532,99 @@
     <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:25" s="6" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="371.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="K2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
